--- a/オートスモーキング仕様書/サウンド/サウンド仕様書.xlsx
+++ b/オートスモーキング仕様書/サウンド/サウンド仕様書.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="サウンド詳細" sheetId="1" r:id="rId1"/>
+    <sheet name="サウンド仕様" sheetId="1" r:id="rId1"/>
     <sheet name="サウンドメモ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>　サウンド　仕様書</t>
     <rPh sb="6" eb="9">
@@ -92,19 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主に使う所</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トコロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イメージ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,6 +253,112 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音の詳細</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1-1～10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２-1～10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３-1～10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM_Opening</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM_Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM_StageSelect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM_StageClear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_BubbleMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_UISelect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_UIMenu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_BubbleGoal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_BubbleBreak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -348,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -360,12 +453,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,135 +1751,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="18.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>31</v>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1796,6 +1982,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1803,61 +1990,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
